--- a/StructureDefinition-ext-R5-ResearchStudy.focus.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.focus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -431,7 +431,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -462,7 +462,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -823,7 +823,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="104.16796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ResearchStudy.focus.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.focus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `ResearchStudy.focus` 0..* `CodeableConcept`
 *  R4: `ResearchStudy.focus` 0..* `CodeableConcept`
 Following are the generation technical comments:
-Element `ResearchStudy.focus` is mapped to FHIR R4 element `ResearchStudy.focus`.</t>
+Element `ResearchStudy.focus` has is mapped to FHIR R4 element `ResearchStudy.focus`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -430,8 +430,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -462,8 +462,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -823,7 +823,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ResearchStudy.focus.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.focus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -430,8 +430,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -462,8 +461,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -478,7 +476,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|0.0.1-snapshot-3|SubstanceSpecification|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|SubstanceSpecification|http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable)
 </t>
   </si>
   <si>
@@ -823,7 +821,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="95.9453125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ResearchStudy.focus.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.focus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="151">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `ResearchStudy.focus` 0..* `CodeableConcept`
 *  R4: `ResearchStudy.focus` 0..* `CodeableConcept`
 Following are the generation technical comments:
-Element `ResearchStudy.focus` has is mapped to FHIR R4 element `ResearchStudy.focus`, but has no comparisons.</t>
+Element `ResearchStudy.focus` is mapped to FHIR R4 element `ResearchStudy.focus` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -430,7 +430,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -449,6 +449,12 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-research-study-focus-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:reference</t>
   </si>
   <si>
@@ -461,7 +467,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -476,7 +482,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|SubstanceSpecification|http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|EvidenceVariable)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|0.0.1-snapshot-3|SubstanceSpecification|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-EvidenceVariable|0.0.1-snapshot-3|EvidenceVariable|4.0.1)
 </t>
   </si>
   <si>
@@ -821,7 +827,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="95.9453125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="131.76171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -832,7 +838,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.73046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2271,13 +2277,11 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2315,13 +2319,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2346,14 +2350,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2422,7 +2426,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>104</v>
@@ -2525,7 +2529,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>106</v>
@@ -2630,7 +2634,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>112</v>
@@ -2673,7 +2677,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2735,7 +2739,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>121</v>
@@ -2761,13 +2765,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2969,7 +2973,7 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>122</v>
